--- a/Data_Ryan/Equity Data.xlsx
+++ b/Data_Ryan/Equity Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibf_pmp1\Desktop\Fundamental Analysts 2025_26\MGR\Final Presentation 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanyo/Developer/PMP Github/PMP_December_8/Data_Ryan/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF96B37E-AB7E-5F4F-8A7B-6628C739499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13080"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,21 +369,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E339" sqref="E339"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>35703</v>
       </c>
@@ -423,7 +425,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>35734</v>
       </c>
@@ -438,7 +440,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>35762</v>
       </c>
@@ -453,7 +455,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>35795</v>
       </c>
@@ -468,7 +470,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>35825</v>
       </c>
@@ -483,7 +485,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>35853</v>
       </c>
@@ -498,7 +500,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>35885</v>
       </c>
@@ -513,7 +515,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>35915</v>
       </c>
@@ -528,7 +530,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>35944</v>
       </c>
@@ -543,7 +545,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>35976</v>
       </c>
@@ -558,7 +560,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36007</v>
       </c>
@@ -573,7 +575,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>36038</v>
       </c>
@@ -588,7 +590,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>36068</v>
       </c>
@@ -606,7 +608,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>36098</v>
       </c>
@@ -624,7 +626,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>36129</v>
       </c>
@@ -642,7 +644,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>36160</v>
       </c>
@@ -660,7 +662,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>36189</v>
       </c>
@@ -681,7 +683,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>36217</v>
       </c>
@@ -702,7 +704,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>36250</v>
       </c>
@@ -723,7 +725,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>36280</v>
       </c>
@@ -744,7 +746,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>36311</v>
       </c>
@@ -765,7 +767,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>36341</v>
       </c>
@@ -786,7 +788,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>36371</v>
       </c>
@@ -807,7 +809,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>36403</v>
       </c>
@@ -828,7 +830,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>36433</v>
       </c>
@@ -849,7 +851,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>36462</v>
       </c>
@@ -870,7 +872,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>36494</v>
       </c>
@@ -891,7 +893,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>36525</v>
       </c>
@@ -912,7 +914,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>36556</v>
       </c>
@@ -933,7 +935,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>36585</v>
       </c>
@@ -954,7 +956,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>36616</v>
       </c>
@@ -975,7 +977,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>36644</v>
       </c>
@@ -996,7 +998,7 @@
       </c>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>36677</v>
       </c>
@@ -1020,7 +1022,7 @@
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>36707</v>
       </c>
@@ -1044,7 +1046,7 @@
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>36738</v>
       </c>
@@ -1068,7 +1070,7 @@
       </c>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36769</v>
       </c>
@@ -1092,7 +1094,7 @@
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36798</v>
       </c>
@@ -1116,7 +1118,7 @@
       </c>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>36830</v>
       </c>
@@ -1140,7 +1142,7 @@
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>36860</v>
       </c>
@@ -1164,7 +1166,7 @@
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>36889</v>
       </c>
@@ -1188,7 +1190,7 @@
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>36922</v>
       </c>
@@ -1212,7 +1214,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>36950</v>
       </c>
@@ -1236,7 +1238,7 @@
       </c>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>36980</v>
       </c>
@@ -1260,7 +1262,7 @@
       </c>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>37011</v>
       </c>
@@ -1284,7 +1286,7 @@
       </c>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>37042</v>
       </c>
@@ -1308,7 +1310,7 @@
       </c>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>37071</v>
       </c>
@@ -1332,7 +1334,7 @@
       </c>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>37103</v>
       </c>
@@ -1356,7 +1358,7 @@
       </c>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>37134</v>
       </c>
@@ -1380,7 +1382,7 @@
       </c>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>37162</v>
       </c>
@@ -1404,7 +1406,7 @@
       </c>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>37195</v>
       </c>
@@ -1428,7 +1430,7 @@
       </c>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>37225</v>
       </c>
@@ -1452,7 +1454,7 @@
       </c>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>37256</v>
       </c>
@@ -1476,7 +1478,7 @@
       </c>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>37287</v>
       </c>
@@ -1500,7 +1502,7 @@
       </c>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>37315</v>
       </c>
@@ -1524,7 +1526,7 @@
       </c>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>37344</v>
       </c>
@@ -1548,7 +1550,7 @@
       </c>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>37376</v>
       </c>
@@ -1572,7 +1574,7 @@
       </c>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>37407</v>
       </c>
@@ -1596,7 +1598,7 @@
       </c>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>37435</v>
       </c>
@@ -1620,7 +1622,7 @@
       </c>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>37468</v>
       </c>
@@ -1644,7 +1646,7 @@
       </c>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>37498</v>
       </c>
@@ -1668,7 +1670,7 @@
       </c>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>37529</v>
       </c>
@@ -1692,7 +1694,7 @@
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>37560</v>
       </c>
@@ -1716,7 +1718,7 @@
       </c>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>37589</v>
       </c>
@@ -1740,7 +1742,7 @@
       </c>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>37621</v>
       </c>
@@ -1764,7 +1766,7 @@
       </c>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>37652</v>
       </c>
@@ -1788,7 +1790,7 @@
       </c>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>37680</v>
       </c>
@@ -1812,7 +1814,7 @@
       </c>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>37711</v>
       </c>
@@ -1836,7 +1838,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>37741</v>
       </c>
@@ -1860,7 +1862,7 @@
       </c>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>37771</v>
       </c>
@@ -1884,7 +1886,7 @@
       </c>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>37802</v>
       </c>
@@ -1908,7 +1910,7 @@
       </c>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>37833</v>
       </c>
@@ -1932,7 +1934,7 @@
       </c>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>37862</v>
       </c>
@@ -1956,7 +1958,7 @@
       </c>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>37894</v>
       </c>
@@ -1980,7 +1982,7 @@
       </c>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>37925</v>
       </c>
@@ -2004,7 +2006,7 @@
       </c>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>37953</v>
       </c>
@@ -2028,7 +2030,7 @@
       </c>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>37986</v>
       </c>
@@ -2052,7 +2054,7 @@
       </c>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>38016</v>
       </c>
@@ -2076,7 +2078,7 @@
       </c>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>38044</v>
       </c>
@@ -2100,7 +2102,7 @@
       </c>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>38077</v>
       </c>
@@ -2124,7 +2126,7 @@
       </c>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>38107</v>
       </c>
@@ -2148,7 +2150,7 @@
       </c>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>38138</v>
       </c>
@@ -2172,7 +2174,7 @@
       </c>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>38168</v>
       </c>
@@ -2196,7 +2198,7 @@
       </c>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>38198</v>
       </c>
@@ -2220,7 +2222,7 @@
       </c>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>38230</v>
       </c>
@@ -2244,7 +2246,7 @@
       </c>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>38260</v>
       </c>
@@ -2268,7 +2270,7 @@
       </c>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>38289</v>
       </c>
@@ -2292,7 +2294,7 @@
       </c>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>38321</v>
       </c>
@@ -2316,7 +2318,7 @@
       </c>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>38352</v>
       </c>
@@ -2340,7 +2342,7 @@
       </c>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>38383</v>
       </c>
@@ -2364,7 +2366,7 @@
       </c>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>38411</v>
       </c>
@@ -2388,7 +2390,7 @@
       </c>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>38442</v>
       </c>
@@ -2412,7 +2414,7 @@
       </c>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>38471</v>
       </c>
@@ -2436,7 +2438,7 @@
       </c>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>38503</v>
       </c>
@@ -2460,7 +2462,7 @@
       </c>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>38533</v>
       </c>
@@ -2484,7 +2486,7 @@
       </c>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>38562</v>
       </c>
@@ -2508,7 +2510,7 @@
       </c>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>38595</v>
       </c>
@@ -2532,7 +2534,7 @@
       </c>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>38625</v>
       </c>
@@ -2556,7 +2558,7 @@
       </c>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>38656</v>
       </c>
@@ -2580,7 +2582,7 @@
       </c>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>38686</v>
       </c>
@@ -2604,7 +2606,7 @@
       </c>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>38716</v>
       </c>
@@ -2628,7 +2630,7 @@
       </c>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>38748</v>
       </c>
@@ -2652,7 +2654,7 @@
       </c>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>38776</v>
       </c>
@@ -2676,7 +2678,7 @@
       </c>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>38807</v>
       </c>
@@ -2700,7 +2702,7 @@
       </c>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>38835</v>
       </c>
@@ -2724,7 +2726,7 @@
       </c>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>38868</v>
       </c>
@@ -2748,7 +2750,7 @@
       </c>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>38898</v>
       </c>
@@ -2772,7 +2774,7 @@
       </c>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>38929</v>
       </c>
@@ -2796,7 +2798,7 @@
       </c>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>38960</v>
       </c>
@@ -2820,7 +2822,7 @@
       </c>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>38989</v>
       </c>
@@ -2847,7 +2849,7 @@
       </c>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>39021</v>
       </c>
@@ -2874,7 +2876,7 @@
       </c>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>39051</v>
       </c>
@@ -2901,7 +2903,7 @@
       </c>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>39080</v>
       </c>
@@ -2928,7 +2930,7 @@
       </c>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>39113</v>
       </c>
@@ -2955,7 +2957,7 @@
       </c>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>39141</v>
       </c>
@@ -2982,7 +2984,7 @@
       </c>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>39171</v>
       </c>
@@ -3009,7 +3011,7 @@
       </c>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>39202</v>
       </c>
@@ -3036,7 +3038,7 @@
       </c>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>39233</v>
       </c>
@@ -3063,7 +3065,7 @@
       </c>
       <c r="L118" s="1"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>39262</v>
       </c>
@@ -3090,7 +3092,7 @@
       </c>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>39294</v>
       </c>
@@ -3117,7 +3119,7 @@
       </c>
       <c r="L120" s="1"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>39325</v>
       </c>
@@ -3144,7 +3146,7 @@
       </c>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>39353</v>
       </c>
@@ -3171,7 +3173,7 @@
       </c>
       <c r="L122" s="1"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>39386</v>
       </c>
@@ -3198,7 +3200,7 @@
       </c>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>39416</v>
       </c>
@@ -3225,7 +3227,7 @@
       </c>
       <c r="L124" s="1"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>39447</v>
       </c>
@@ -3252,7 +3254,7 @@
       </c>
       <c r="L125" s="1"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>39478</v>
       </c>
@@ -3279,7 +3281,7 @@
       </c>
       <c r="L126" s="1"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>39507</v>
       </c>
@@ -3306,7 +3308,7 @@
       </c>
       <c r="L127" s="1"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>39538</v>
       </c>
@@ -3333,7 +3335,7 @@
       </c>
       <c r="L128" s="1"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>39568</v>
       </c>
@@ -3360,7 +3362,7 @@
       </c>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>39598</v>
       </c>
@@ -3387,7 +3389,7 @@
       </c>
       <c r="L130" s="1"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>39629</v>
       </c>
@@ -3414,7 +3416,7 @@
       </c>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>39660</v>
       </c>
@@ -3441,7 +3443,7 @@
       </c>
       <c r="L132" s="1"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>39689</v>
       </c>
@@ -3468,7 +3470,7 @@
       </c>
       <c r="L133" s="1"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>39721</v>
       </c>
@@ -3495,7 +3497,7 @@
       </c>
       <c r="L134" s="1"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>39752</v>
       </c>
@@ -3522,7 +3524,7 @@
       </c>
       <c r="L135" s="1"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>39780</v>
       </c>
@@ -3549,7 +3551,7 @@
       </c>
       <c r="L136" s="1"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>39813</v>
       </c>
@@ -3576,7 +3578,7 @@
       </c>
       <c r="L137" s="1"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>39843</v>
       </c>
@@ -3603,7 +3605,7 @@
       </c>
       <c r="L138" s="1"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>39871</v>
       </c>
@@ -3630,7 +3632,7 @@
       </c>
       <c r="L139" s="1"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>39903</v>
       </c>
@@ -3657,7 +3659,7 @@
       </c>
       <c r="L140" s="1"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>39933</v>
       </c>
@@ -3684,7 +3686,7 @@
       </c>
       <c r="L141" s="1"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>39962</v>
       </c>
@@ -3711,7 +3713,7 @@
       </c>
       <c r="L142" s="1"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>39994</v>
       </c>
@@ -3738,7 +3740,7 @@
       </c>
       <c r="L143" s="1"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>40025</v>
       </c>
@@ -3765,7 +3767,7 @@
       </c>
       <c r="L144" s="1"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>40056</v>
       </c>
@@ -3792,7 +3794,7 @@
       </c>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>40086</v>
       </c>
@@ -3819,7 +3821,7 @@
       </c>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>40116</v>
       </c>
@@ -3846,7 +3848,7 @@
       </c>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>40147</v>
       </c>
@@ -3873,7 +3875,7 @@
       </c>
       <c r="L148" s="1"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>40178</v>
       </c>
@@ -3900,7 +3902,7 @@
       </c>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>40207</v>
       </c>
@@ -3927,7 +3929,7 @@
       </c>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>40235</v>
       </c>
@@ -3954,7 +3956,7 @@
       </c>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>40268</v>
       </c>
@@ -3981,7 +3983,7 @@
       </c>
       <c r="L152" s="1"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>40298</v>
       </c>
@@ -4008,7 +4010,7 @@
       </c>
       <c r="L153" s="1"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>40329</v>
       </c>
@@ -4035,7 +4037,7 @@
       </c>
       <c r="L154" s="1"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>40359</v>
       </c>
@@ -4062,7 +4064,7 @@
       </c>
       <c r="L155" s="1"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>40389</v>
       </c>
@@ -4089,7 +4091,7 @@
       </c>
       <c r="L156" s="1"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>40421</v>
       </c>
@@ -4116,7 +4118,7 @@
       </c>
       <c r="L157" s="1"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>40451</v>
       </c>
@@ -4143,7 +4145,7 @@
       </c>
       <c r="L158" s="1"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>40480</v>
       </c>
@@ -4170,7 +4172,7 @@
       </c>
       <c r="L159" s="1"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>40512</v>
       </c>
@@ -4197,7 +4199,7 @@
       </c>
       <c r="L160" s="1"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>40543</v>
       </c>
@@ -4224,7 +4226,7 @@
       </c>
       <c r="L161" s="1"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>40574</v>
       </c>
@@ -4251,7 +4253,7 @@
       </c>
       <c r="L162" s="1"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>40602</v>
       </c>
@@ -4278,7 +4280,7 @@
       </c>
       <c r="L163" s="1"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>40633</v>
       </c>
@@ -4305,7 +4307,7 @@
       </c>
       <c r="L164" s="1"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>40662</v>
       </c>
@@ -4332,7 +4334,7 @@
       </c>
       <c r="L165" s="1"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>40694</v>
       </c>
@@ -4359,7 +4361,7 @@
       </c>
       <c r="L166" s="1"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>40724</v>
       </c>
@@ -4386,7 +4388,7 @@
       </c>
       <c r="L167" s="1"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>40753</v>
       </c>
@@ -4413,7 +4415,7 @@
       </c>
       <c r="L168" s="1"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>40786</v>
       </c>
@@ -4440,7 +4442,7 @@
       </c>
       <c r="L169" s="1"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>40816</v>
       </c>
@@ -4467,7 +4469,7 @@
       </c>
       <c r="L170" s="1"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>40847</v>
       </c>
@@ -4494,7 +4496,7 @@
       </c>
       <c r="L171" s="1"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>40877</v>
       </c>
@@ -4521,7 +4523,7 @@
       </c>
       <c r="L172" s="1"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>40907</v>
       </c>
@@ -4548,7 +4550,7 @@
       </c>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>40939</v>
       </c>
@@ -4575,7 +4577,7 @@
       </c>
       <c r="L174" s="1"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>40968</v>
       </c>
@@ -4602,7 +4604,7 @@
       </c>
       <c r="L175" s="1"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>40998</v>
       </c>
@@ -4629,7 +4631,7 @@
       </c>
       <c r="L176" s="1"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>41029</v>
       </c>
@@ -4656,7 +4658,7 @@
       </c>
       <c r="L177" s="1"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41060</v>
       </c>
@@ -4683,7 +4685,7 @@
       </c>
       <c r="L178" s="1"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>41089</v>
       </c>
@@ -4710,7 +4712,7 @@
       </c>
       <c r="L179" s="1"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>41121</v>
       </c>
@@ -4737,7 +4739,7 @@
       </c>
       <c r="L180" s="1"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>41152</v>
       </c>
@@ -4764,7 +4766,7 @@
       </c>
       <c r="L181" s="1"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>41180</v>
       </c>
@@ -4791,7 +4793,7 @@
       </c>
       <c r="L182" s="1"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>41213</v>
       </c>
@@ -4818,7 +4820,7 @@
       </c>
       <c r="L183" s="1"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>41243</v>
       </c>
@@ -4845,7 +4847,7 @@
       </c>
       <c r="L184" s="1"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>41274</v>
       </c>
@@ -4872,7 +4874,7 @@
       </c>
       <c r="L185" s="1"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>41305</v>
       </c>
@@ -4899,7 +4901,7 @@
       </c>
       <c r="L186" s="1"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>41333</v>
       </c>
@@ -4926,7 +4928,7 @@
       </c>
       <c r="L187" s="1"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>41362</v>
       </c>
@@ -4953,7 +4955,7 @@
       </c>
       <c r="L188" s="1"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>41394</v>
       </c>
@@ -4980,7 +4982,7 @@
       </c>
       <c r="L189" s="1"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>41425</v>
       </c>
@@ -5007,7 +5009,7 @@
       </c>
       <c r="L190" s="1"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>41453</v>
       </c>
@@ -5034,7 +5036,7 @@
       </c>
       <c r="L191" s="1"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>41486</v>
       </c>
@@ -5061,7 +5063,7 @@
       </c>
       <c r="L192" s="1"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>41516</v>
       </c>
@@ -5088,7 +5090,7 @@
       </c>
       <c r="L193" s="1"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>41547</v>
       </c>
@@ -5115,7 +5117,7 @@
       </c>
       <c r="L194" s="1"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>41578</v>
       </c>
@@ -5142,7 +5144,7 @@
       </c>
       <c r="L195" s="1"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>41607</v>
       </c>
@@ -5169,7 +5171,7 @@
       </c>
       <c r="L196" s="1"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>41639</v>
       </c>
@@ -5196,7 +5198,7 @@
       </c>
       <c r="L197" s="1"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>41670</v>
       </c>
@@ -5223,7 +5225,7 @@
       </c>
       <c r="L198" s="1"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>41698</v>
       </c>
@@ -5250,7 +5252,7 @@
       </c>
       <c r="L199" s="1"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>41729</v>
       </c>
@@ -5277,7 +5279,7 @@
       </c>
       <c r="L200" s="1"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>41759</v>
       </c>
@@ -5304,7 +5306,7 @@
       </c>
       <c r="L201" s="1"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>41789</v>
       </c>
@@ -5331,7 +5333,7 @@
       </c>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>41820</v>
       </c>
@@ -5358,7 +5360,7 @@
       </c>
       <c r="L203" s="1"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>41851</v>
       </c>
@@ -5385,7 +5387,7 @@
       </c>
       <c r="L204" s="1"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>41880</v>
       </c>
@@ -5412,7 +5414,7 @@
       </c>
       <c r="L205" s="1"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>41912</v>
       </c>
@@ -5439,7 +5441,7 @@
       </c>
       <c r="L206" s="1"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>41943</v>
       </c>
@@ -5466,7 +5468,7 @@
       </c>
       <c r="L207" s="1"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>41971</v>
       </c>
@@ -5493,7 +5495,7 @@
       </c>
       <c r="L208" s="1"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>42004</v>
       </c>
@@ -5520,7 +5522,7 @@
       </c>
       <c r="L209" s="1"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>42034</v>
       </c>
@@ -5547,7 +5549,7 @@
       </c>
       <c r="L210" s="1"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>42062</v>
       </c>
@@ -5574,7 +5576,7 @@
       </c>
       <c r="L211" s="1"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>42094</v>
       </c>
@@ -5601,7 +5603,7 @@
       </c>
       <c r="L212" s="1"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>42124</v>
       </c>
@@ -5628,7 +5630,7 @@
       </c>
       <c r="L213" s="1"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>42153</v>
       </c>
@@ -5655,7 +5657,7 @@
       </c>
       <c r="L214" s="1"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>42185</v>
       </c>
@@ -5682,7 +5684,7 @@
       </c>
       <c r="L215" s="1"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>42216</v>
       </c>
@@ -5709,7 +5711,7 @@
       </c>
       <c r="L216" s="1"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>42247</v>
       </c>
@@ -5736,7 +5738,7 @@
       </c>
       <c r="L217" s="1"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>42277</v>
       </c>
@@ -5763,7 +5765,7 @@
       </c>
       <c r="L218" s="1"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>42307</v>
       </c>
@@ -5790,7 +5792,7 @@
       </c>
       <c r="L219" s="1"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>42338</v>
       </c>
@@ -5817,7 +5819,7 @@
       </c>
       <c r="L220" s="1"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>42369</v>
       </c>
@@ -5844,7 +5846,7 @@
       </c>
       <c r="L221" s="1"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>42398</v>
       </c>
@@ -5871,7 +5873,7 @@
       </c>
       <c r="L222" s="1"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>42429</v>
       </c>
@@ -5898,7 +5900,7 @@
       </c>
       <c r="L223" s="1"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>42460</v>
       </c>
@@ -5925,7 +5927,7 @@
       </c>
       <c r="L224" s="1"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>42489</v>
       </c>
@@ -5952,7 +5954,7 @@
       </c>
       <c r="L225" s="1"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>42521</v>
       </c>
@@ -5979,7 +5981,7 @@
       </c>
       <c r="L226" s="1"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>42551</v>
       </c>
@@ -6006,7 +6008,7 @@
       </c>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>42580</v>
       </c>
@@ -6033,7 +6035,7 @@
       </c>
       <c r="L228" s="1"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>42613</v>
       </c>
@@ -6060,7 +6062,7 @@
       </c>
       <c r="L229" s="1"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>42643</v>
       </c>
@@ -6087,7 +6089,7 @@
       </c>
       <c r="L230" s="1"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>42674</v>
       </c>
@@ -6114,7 +6116,7 @@
       </c>
       <c r="L231" s="1"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>42704</v>
       </c>
@@ -6141,7 +6143,7 @@
       </c>
       <c r="L232" s="1"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>42734</v>
       </c>
@@ -6168,7 +6170,7 @@
       </c>
       <c r="L233" s="1"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>42766</v>
       </c>
@@ -6195,7 +6197,7 @@
       </c>
       <c r="L234" s="1"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>42794</v>
       </c>
@@ -6222,7 +6224,7 @@
       </c>
       <c r="L235" s="1"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>42825</v>
       </c>
@@ -6249,7 +6251,7 @@
       </c>
       <c r="L236" s="1"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>42853</v>
       </c>
@@ -6276,7 +6278,7 @@
       </c>
       <c r="L237" s="1"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>42886</v>
       </c>
@@ -6303,7 +6305,7 @@
       </c>
       <c r="L238" s="1"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>42916</v>
       </c>
@@ -6330,7 +6332,7 @@
       </c>
       <c r="L239" s="1"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>42947</v>
       </c>
@@ -6357,7 +6359,7 @@
       </c>
       <c r="L240" s="1"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>42978</v>
       </c>
@@ -6384,7 +6386,7 @@
       </c>
       <c r="L241" s="1"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43007</v>
       </c>
@@ -6411,7 +6413,7 @@
       </c>
       <c r="L242" s="1"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43039</v>
       </c>
@@ -6438,7 +6440,7 @@
       </c>
       <c r="L243" s="1"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43069</v>
       </c>
@@ -6465,7 +6467,7 @@
       </c>
       <c r="L244" s="1"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43098</v>
       </c>
@@ -6492,7 +6494,7 @@
       </c>
       <c r="L245" s="1"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43131</v>
       </c>
@@ -6519,7 +6521,7 @@
       </c>
       <c r="L246" s="1"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43159</v>
       </c>
@@ -6546,7 +6548,7 @@
       </c>
       <c r="L247" s="1"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>43189</v>
       </c>
@@ -6573,7 +6575,7 @@
       </c>
       <c r="L248" s="1"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>43220</v>
       </c>
@@ -6600,7 +6602,7 @@
       </c>
       <c r="L249" s="1"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>43251</v>
       </c>
@@ -6627,7 +6629,7 @@
       </c>
       <c r="L250" s="1"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>43280</v>
       </c>
@@ -6654,7 +6656,7 @@
       </c>
       <c r="L251" s="1"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>43312</v>
       </c>
@@ -6681,7 +6683,7 @@
       </c>
       <c r="L252" s="1"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>43343</v>
       </c>
@@ -6708,7 +6710,7 @@
       </c>
       <c r="L253" s="1"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>43371</v>
       </c>
@@ -6735,7 +6737,7 @@
       </c>
       <c r="L254" s="1"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>43404</v>
       </c>
@@ -6762,7 +6764,7 @@
       </c>
       <c r="L255" s="1"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>43434</v>
       </c>
@@ -6789,7 +6791,7 @@
       </c>
       <c r="L256" s="1"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>43465</v>
       </c>
@@ -6816,7 +6818,7 @@
       </c>
       <c r="L257" s="1"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>43496</v>
       </c>
@@ -6843,7 +6845,7 @@
       </c>
       <c r="L258" s="1"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>43524</v>
       </c>
@@ -6870,7 +6872,7 @@
       </c>
       <c r="L259" s="1"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>43553</v>
       </c>
@@ -6897,7 +6899,7 @@
       </c>
       <c r="L260" s="1"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>43585</v>
       </c>
@@ -6924,7 +6926,7 @@
       </c>
       <c r="L261" s="1"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>43616</v>
       </c>
@@ -6951,7 +6953,7 @@
       </c>
       <c r="L262" s="1"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>43644</v>
       </c>
@@ -6978,7 +6980,7 @@
       </c>
       <c r="L263" s="1"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>43677</v>
       </c>
@@ -7005,7 +7007,7 @@
       </c>
       <c r="L264" s="1"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>43707</v>
       </c>
@@ -7032,7 +7034,7 @@
       </c>
       <c r="L265" s="1"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>43738</v>
       </c>
@@ -7059,7 +7061,7 @@
       </c>
       <c r="L266" s="1"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>43769</v>
       </c>
@@ -7086,7 +7088,7 @@
       </c>
       <c r="L267" s="1"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>43798</v>
       </c>
@@ -7113,7 +7115,7 @@
       </c>
       <c r="L268" s="1"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>43830</v>
       </c>
@@ -7140,7 +7142,7 @@
       </c>
       <c r="L269" s="1"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>43861</v>
       </c>
@@ -7167,7 +7169,7 @@
       </c>
       <c r="L270" s="1"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>43889</v>
       </c>
@@ -7194,7 +7196,7 @@
       </c>
       <c r="L271" s="1"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>43921</v>
       </c>
@@ -7221,7 +7223,7 @@
       </c>
       <c r="L272" s="1"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>43951</v>
       </c>
@@ -7248,7 +7250,7 @@
       </c>
       <c r="L273" s="1"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>43980</v>
       </c>
@@ -7275,7 +7277,7 @@
       </c>
       <c r="L274" s="1"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44012</v>
       </c>
@@ -7302,7 +7304,7 @@
       </c>
       <c r="L275" s="1"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44043</v>
       </c>
@@ -7329,7 +7331,7 @@
       </c>
       <c r="L276" s="1"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44074</v>
       </c>
@@ -7356,7 +7358,7 @@
       </c>
       <c r="L277" s="1"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44104</v>
       </c>
@@ -7383,7 +7385,7 @@
       </c>
       <c r="L278" s="1"/>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44134</v>
       </c>
@@ -7410,7 +7412,7 @@
       </c>
       <c r="L279" s="1"/>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44165</v>
       </c>
@@ -7437,7 +7439,7 @@
       </c>
       <c r="L280" s="1"/>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44196</v>
       </c>
@@ -7464,7 +7466,7 @@
       </c>
       <c r="L281" s="1"/>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44225</v>
       </c>
@@ -7491,7 +7493,7 @@
       </c>
       <c r="L282" s="1"/>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44253</v>
       </c>
@@ -7518,7 +7520,7 @@
       </c>
       <c r="L283" s="1"/>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44286</v>
       </c>
@@ -7545,7 +7547,7 @@
       </c>
       <c r="L284" s="1"/>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44316</v>
       </c>
@@ -7572,7 +7574,7 @@
       </c>
       <c r="L285" s="1"/>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44347</v>
       </c>
@@ -7599,7 +7601,7 @@
       </c>
       <c r="L286" s="1"/>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44377</v>
       </c>
@@ -7626,7 +7628,7 @@
       </c>
       <c r="L287" s="1"/>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44407</v>
       </c>
@@ -7653,7 +7655,7 @@
       </c>
       <c r="L288" s="1"/>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44439</v>
       </c>
@@ -7680,7 +7682,7 @@
       </c>
       <c r="L289" s="1"/>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44469</v>
       </c>
@@ -7707,7 +7709,7 @@
       </c>
       <c r="L290" s="1"/>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44498</v>
       </c>
@@ -7734,7 +7736,7 @@
       </c>
       <c r="L291" s="1"/>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44530</v>
       </c>
@@ -7761,7 +7763,7 @@
       </c>
       <c r="L292" s="1"/>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44561</v>
       </c>
@@ -7788,7 +7790,7 @@
       </c>
       <c r="L293" s="1"/>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44592</v>
       </c>
@@ -7815,7 +7817,7 @@
       </c>
       <c r="L294" s="1"/>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44620</v>
       </c>
@@ -7842,7 +7844,7 @@
       </c>
       <c r="L295" s="1"/>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44651</v>
       </c>
@@ -7869,7 +7871,7 @@
       </c>
       <c r="L296" s="1"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44680</v>
       </c>
@@ -7896,7 +7898,7 @@
       </c>
       <c r="L297" s="1"/>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44712</v>
       </c>
@@ -7923,7 +7925,7 @@
       </c>
       <c r="L298" s="1"/>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44742</v>
       </c>
@@ -7950,7 +7952,7 @@
       </c>
       <c r="L299" s="1"/>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44771</v>
       </c>
@@ -7977,7 +7979,7 @@
       </c>
       <c r="L300" s="1"/>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44804</v>
       </c>
@@ -8004,7 +8006,7 @@
       </c>
       <c r="L301" s="1"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44834</v>
       </c>
@@ -8031,7 +8033,7 @@
       </c>
       <c r="L302" s="1"/>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44865</v>
       </c>
@@ -8058,7 +8060,7 @@
       </c>
       <c r="L303" s="1"/>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44895</v>
       </c>
@@ -8085,7 +8087,7 @@
       </c>
       <c r="L304" s="1"/>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44925</v>
       </c>
@@ -8112,7 +8114,7 @@
       </c>
       <c r="L305" s="1"/>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44957</v>
       </c>
@@ -8139,7 +8141,7 @@
       </c>
       <c r="L306" s="1"/>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44985</v>
       </c>
@@ -8166,7 +8168,7 @@
       </c>
       <c r="L307" s="1"/>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>45016</v>
       </c>
@@ -8193,7 +8195,7 @@
       </c>
       <c r="L308" s="1"/>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>45044</v>
       </c>
@@ -8220,7 +8222,7 @@
       </c>
       <c r="L309" s="1"/>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>45077</v>
       </c>
@@ -8247,7 +8249,7 @@
       </c>
       <c r="L310" s="1"/>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>45107</v>
       </c>
@@ -8274,7 +8276,7 @@
       </c>
       <c r="L311" s="1"/>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>45138</v>
       </c>
@@ -8301,7 +8303,7 @@
       </c>
       <c r="L312" s="1"/>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>45169</v>
       </c>
@@ -8328,7 +8330,7 @@
       </c>
       <c r="L313" s="1"/>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>45198</v>
       </c>
@@ -8355,7 +8357,7 @@
       </c>
       <c r="L314" s="1"/>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>45230</v>
       </c>
@@ -8382,7 +8384,7 @@
       </c>
       <c r="L315" s="1"/>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>45260</v>
       </c>
@@ -8409,7 +8411,7 @@
       </c>
       <c r="L316" s="1"/>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>45289</v>
       </c>
@@ -8436,7 +8438,7 @@
       </c>
       <c r="L317" s="1"/>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>45322</v>
       </c>
@@ -8463,7 +8465,7 @@
       </c>
       <c r="L318" s="1"/>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>45351</v>
       </c>
@@ -8490,7 +8492,7 @@
       </c>
       <c r="L319" s="1"/>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>45380</v>
       </c>
@@ -8517,7 +8519,7 @@
       </c>
       <c r="L320" s="1"/>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>45412</v>
       </c>
@@ -8544,7 +8546,7 @@
       </c>
       <c r="L321" s="1"/>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>45443</v>
       </c>
@@ -8571,7 +8573,7 @@
       </c>
       <c r="L322" s="1"/>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>45471</v>
       </c>
@@ -8598,7 +8600,7 @@
       </c>
       <c r="L323" s="1"/>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>45504</v>
       </c>
@@ -8625,7 +8627,7 @@
       </c>
       <c r="L324" s="1"/>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>45534</v>
       </c>
@@ -8652,7 +8654,7 @@
       </c>
       <c r="L325" s="1"/>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>45565</v>
       </c>
@@ -8679,7 +8681,7 @@
       </c>
       <c r="L326" s="1"/>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>45596</v>
       </c>
@@ -8706,7 +8708,7 @@
       </c>
       <c r="L327" s="1"/>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>45625</v>
       </c>
@@ -8733,7 +8735,7 @@
       </c>
       <c r="L328" s="1"/>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>45657</v>
       </c>
@@ -8760,7 +8762,7 @@
       </c>
       <c r="L329" s="1"/>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>45688</v>
       </c>
@@ -8787,7 +8789,7 @@
       </c>
       <c r="L330" s="1"/>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>45716</v>
       </c>
@@ -8814,7 +8816,7 @@
       </c>
       <c r="L331" s="1"/>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>45747</v>
       </c>
@@ -8841,7 +8843,7 @@
       </c>
       <c r="L332" s="1"/>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>45777</v>
       </c>
@@ -8868,7 +8870,7 @@
       </c>
       <c r="L333" s="1"/>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>45807</v>
       </c>
@@ -8895,7 +8897,7 @@
       </c>
       <c r="L334" s="1"/>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>45838</v>
       </c>
@@ -8922,7 +8924,7 @@
       </c>
       <c r="L335" s="1"/>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>45869</v>
       </c>
@@ -8949,7 +8951,7 @@
       </c>
       <c r="L336" s="1"/>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>45898</v>
       </c>
@@ -8976,7 +8978,7 @@
       </c>
       <c r="L337" s="1"/>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>45930</v>
       </c>
@@ -9003,7 +9005,7 @@
       </c>
       <c r="L338" s="1"/>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>45961</v>
       </c>
@@ -9225,15 +9227,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d1f15cdc-886a-4af0-9db5-f84c8d88527b" xsi:nil="true"/>
@@ -9244,14 +9237,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{091972F6-E119-44A8-AD00-D8B3FD5154F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{091972F6-E119-44A8-AD00-D8B3FD5154F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63fe9c16-2f69-4d2d-9e53-848c714d6ac9"/>
+    <ds:schemaRef ds:uri="d1f15cdc-886a-4af0-9db5-f84c8d88527b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A7FFE5-5A3B-4F0F-9CEF-C46A13C51D87}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C2F61F5-7233-4F16-B2A0-7FFA49146F4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d1f15cdc-886a-4af0-9db5-f84c8d88527b"/>
+    <ds:schemaRef ds:uri="63fe9c16-2f69-4d2d-9e53-848c714d6ac9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C2F61F5-7233-4F16-B2A0-7FFA49146F4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A7FFE5-5A3B-4F0F-9CEF-C46A13C51D87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data_Ryan/Equity Data.xlsx
+++ b/Data_Ryan/Equity Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanyo/Developer/PMP Github/PMP_December_8/Data_Ryan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanyo/Developer/Global Macro Momentum Model/Data_Ryan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF96B37E-AB7E-5F4F-8A7B-6628C739499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C088D0-C479-3D48-AE88-406D7E44ABD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +63,9 @@
   </si>
   <si>
     <t>EU</t>
+  </si>
+  <si>
+    <t>#N/A N/A</t>
   </si>
 </sst>
 </file>
@@ -372,9 +386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E339" sqref="E339"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -417,11 +431,23 @@
       <c r="B2">
         <v>1206.8212891000001</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2">
         <v>7.3342900000000002</v>
       </c>
       <c r="F2">
         <v>7487.5537100000001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -432,11 +458,23 @@
       <c r="B3">
         <v>1168.2586670000001</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
       <c r="E3">
         <v>6.8264199999999997</v>
       </c>
       <c r="F3">
         <v>7084.4643599999999</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -447,11 +485,23 @@
       <c r="B4">
         <v>1207.4534911999999</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
       <c r="E4">
         <v>6.34016</v>
       </c>
       <c r="F4">
         <v>7152.5561500000003</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -462,11 +512,23 @@
       <c r="B5">
         <v>1223.8402100000001</v>
       </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
       <c r="E5">
         <v>5.8608700000000002</v>
       </c>
       <c r="F5">
         <v>7365.3745099999996</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -477,11 +539,23 @@
       <c r="B6">
         <v>1234.7784423999999</v>
       </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
       <c r="E6">
         <v>6.3648100000000003</v>
       </c>
       <c r="F6">
         <v>7690.7504900000004</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -492,11 +566,23 @@
       <c r="B7">
         <v>1313.2216797000001</v>
       </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
       <c r="E7">
         <v>6.4778200000000004</v>
       </c>
       <c r="F7">
         <v>8202.7080100000003</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -507,11 +593,23 @@
       <c r="B8">
         <v>1373.1070557</v>
       </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
       <c r="E8">
         <v>6.0082500000000003</v>
       </c>
       <c r="F8">
         <v>8493.8359400000008</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
       </c>
       <c r="L8" s="1"/>
     </row>
@@ -522,11 +620,23 @@
       <c r="B9">
         <v>1383.9261475000001</v>
       </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
       <c r="E9">
         <v>5.8852500000000001</v>
       </c>
       <c r="F9">
         <v>8480.8456999999999</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -537,11 +647,23 @@
       <c r="B10">
         <v>1348.6866454999999</v>
       </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
       <c r="E10">
         <v>5.6755399999999998</v>
       </c>
       <c r="F10">
         <v>8210.7910200000006</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
       </c>
       <c r="L10" s="1"/>
     </row>
@@ -552,11 +674,23 @@
       <c r="B11">
         <v>1398.8068848</v>
       </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
       <c r="E11">
         <v>5.7119</v>
       </c>
       <c r="F11">
         <v>8261.6103500000008</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
       </c>
       <c r="L11" s="1"/>
     </row>
@@ -567,11 +701,23 @@
       <c r="B12">
         <v>1374.3308105000001</v>
       </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
       <c r="E12">
         <v>5.6070500000000001</v>
       </c>
       <c r="F12">
         <v>8041.3632799999996</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
       </c>
       <c r="L12" s="1"/>
     </row>
@@ -582,11 +728,23 @@
       <c r="B13">
         <v>1167.8140868999999</v>
       </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
       <c r="E13">
         <v>5.0335099999999997</v>
       </c>
       <c r="F13">
         <v>7395.7084999999997</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -597,6 +755,9 @@
       <c r="B14">
         <v>1243.7540283000001</v>
       </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
       <c r="D14">
         <v>2638.0078100000001</v>
       </c>
@@ -605,6 +766,12 @@
       </c>
       <c r="F14">
         <v>7230.6577100000004</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="1"/>
     </row>
@@ -615,6 +782,9 @@
       <c r="B15">
         <v>1339.7631836</v>
       </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
       <c r="D15">
         <v>3053.19409</v>
       </c>
@@ -623,6 +793,12 @@
       </c>
       <c r="F15">
         <v>7589.6928699999999</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -633,6 +809,9 @@
       <c r="B16">
         <v>1409.2242432</v>
       </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
       <c r="D16">
         <v>3202.1818800000001</v>
       </c>
@@ -641,6 +820,12 @@
       </c>
       <c r="F16">
         <v>7929.46533</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
       </c>
       <c r="L16" s="1"/>
     </row>
@@ -651,6 +836,9 @@
       <c r="B17">
         <v>1494.4168701000001</v>
       </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
       <c r="D17">
         <v>3253.25659</v>
       </c>
@@ -659,6 +847,12 @@
       </c>
       <c r="F17">
         <v>8022.1547899999996</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -669,6 +863,9 @@
       <c r="B18">
         <v>1537.6115723</v>
       </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
       <c r="D18">
         <v>3204.7595200000001</v>
       </c>
@@ -677,6 +874,9 @@
       </c>
       <c r="F18">
         <v>8024.4550799999997</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
       </c>
       <c r="H18">
         <v>2603.3559599999999</v>
@@ -690,6 +890,9 @@
       <c r="B19">
         <v>1482.4183350000001</v>
       </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
       <c r="D19">
         <v>3070.3774400000002</v>
       </c>
@@ -698,6 +901,9 @@
       </c>
       <c r="F19">
         <v>8126.2553699999999</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
       </c>
       <c r="H19">
         <v>2464.8227499999998</v>
@@ -711,6 +917,9 @@
       <c r="B20">
         <v>1536.6275635</v>
       </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
       <c r="D20">
         <v>3030.9941399999998</v>
       </c>
@@ -719,6 +928,9 @@
       </c>
       <c r="F20">
         <v>8330.4081999999999</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
       </c>
       <c r="H20">
         <v>2458.9938999999999</v>
@@ -732,6 +944,9 @@
       <c r="B21">
         <v>1589.5019531</v>
       </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
       <c r="D21">
         <v>3038.2360800000001</v>
       </c>
@@ -740,6 +955,9 @@
       </c>
       <c r="F21">
         <v>8622.40625</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
       </c>
       <c r="H21">
         <v>2538.5717800000002</v>
@@ -753,6 +971,9 @@
       <c r="B22">
         <v>1544.6478271000001</v>
       </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
       <c r="D22">
         <v>2852.3806199999999</v>
       </c>
@@ -761,6 +982,9 @@
       </c>
       <c r="F22">
         <v>8175.7490200000002</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
       </c>
       <c r="H22">
         <v>2429.32593</v>
@@ -774,6 +998,9 @@
       <c r="B23">
         <v>1624.9733887</v>
       </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
       <c r="D23">
         <v>2808.27295</v>
       </c>
@@ -782,6 +1009,9 @@
       </c>
       <c r="F23">
         <v>8123.0625</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
       </c>
       <c r="H23">
         <v>2508.3229999999999</v>
@@ -795,6 +1025,9 @@
       <c r="B24">
         <v>1566.1721190999999</v>
       </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
       <c r="D24">
         <v>2897.93262</v>
       </c>
@@ -803,6 +1036,9 @@
       </c>
       <c r="F24">
         <v>8219.3964799999994</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
       </c>
       <c r="H24">
         <v>2489.1735800000001</v>
@@ -816,6 +1052,9 @@
       <c r="B25">
         <v>1552.0598144999999</v>
       </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
       <c r="D25">
         <v>2935.6709000000001</v>
       </c>
@@ -824,6 +1063,9 @@
       </c>
       <c r="F25">
         <v>8148.5634799999998</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
       </c>
       <c r="H25">
         <v>2553.48218</v>
@@ -837,6 +1079,9 @@
       <c r="B26">
         <v>1509.8684082</v>
       </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
       <c r="D26">
         <v>2907.3410600000002</v>
       </c>
@@ -845,6 +1090,9 @@
       </c>
       <c r="F26">
         <v>8060.15283</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
       </c>
       <c r="H26">
         <v>2491.6647899999998</v>
@@ -858,6 +1106,9 @@
       <c r="B27">
         <v>1600.5826416</v>
       </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
       <c r="D27">
         <v>2955.6684599999999</v>
       </c>
@@ -866,6 +1117,9 @@
       </c>
       <c r="F27">
         <v>8318.1904300000006</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
       </c>
       <c r="H27">
         <v>2632.6328100000001</v>
@@ -879,6 +1133,9 @@
       <c r="B28">
         <v>1618.3183594</v>
       </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
       <c r="D28">
         <v>2929.71387</v>
       </c>
@@ -887,6 +1144,9 @@
       </c>
       <c r="F28">
         <v>8509.8115199999993</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
       </c>
       <c r="H28">
         <v>2778.6525900000001</v>
@@ -900,6 +1160,9 @@
       <c r="B29">
         <v>1702.6274414</v>
       </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
       <c r="D29">
         <v>2972.4328599999999</v>
       </c>
@@ -908,6 +1171,9 @@
       </c>
       <c r="F29">
         <v>8978.4677699999993</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
       </c>
       <c r="H29">
         <v>3129.1599099999999</v>
@@ -921,6 +1187,9 @@
       <c r="B30">
         <v>1607.1287841999999</v>
       </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
       <c r="D30">
         <v>2618.19922</v>
       </c>
@@ -929,6 +1198,9 @@
       </c>
       <c r="F30">
         <v>8087.4550799999997</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
       </c>
       <c r="H30">
         <v>2862.9370100000001</v>
@@ -942,6 +1214,9 @@
       <c r="B31">
         <v>1573.8620605000001</v>
       </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
       <c r="D31">
         <v>2599.4623999999999</v>
       </c>
@@ -950,6 +1225,9 @@
       </c>
       <c r="F31">
         <v>7873.5073199999997</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
       </c>
       <c r="H31">
         <v>3167.0024400000002</v>
@@ -963,6 +1241,9 @@
       <c r="B32">
         <v>1716.0498047000001</v>
       </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
       <c r="D32">
         <v>2792.1152299999999</v>
       </c>
@@ -971,6 +1252,9 @@
       </c>
       <c r="F32">
         <v>8292.46875</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
       </c>
       <c r="H32">
         <v>3154.3183600000002</v>
@@ -984,6 +1268,9 @@
       <c r="B33">
         <v>1653.4781493999999</v>
       </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
       <c r="D33">
         <v>2710.4279799999999</v>
       </c>
@@ -992,6 +1279,9 @@
       </c>
       <c r="F33">
         <v>7839.7290000000003</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
       </c>
       <c r="H33">
         <v>3044.0419900000002</v>
@@ -1017,6 +1307,9 @@
       <c r="F34">
         <v>7529.4345700000003</v>
       </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
       <c r="H34">
         <v>3064.6872600000002</v>
       </c>
@@ -1041,6 +1334,9 @@
       <c r="F35">
         <v>7526.6728499999999</v>
       </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
       <c r="H35">
         <v>3101.9926799999998</v>
       </c>
@@ -1065,6 +1361,9 @@
       <c r="F36">
         <v>7422.0478499999999</v>
       </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
       <c r="H36">
         <v>2995.5622600000002</v>
       </c>
@@ -1089,6 +1388,9 @@
       <c r="F37">
         <v>7558.6645500000004</v>
       </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
       <c r="H37">
         <v>2864.2336399999999</v>
       </c>
@@ -1113,6 +1415,9 @@
       <c r="F38">
         <v>7242.6718799999999</v>
       </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
       <c r="H38">
         <v>2708.5029300000001</v>
       </c>
@@ -1137,6 +1442,9 @@
       <c r="F39">
         <v>7250.6298800000004</v>
       </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
       <c r="H39">
         <v>2679.09229</v>
       </c>
@@ -1161,6 +1469,9 @@
       <c r="F40">
         <v>6739.2773399999996</v>
       </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
       <c r="H40">
         <v>2585.2089799999999</v>
       </c>
@@ -1185,6 +1496,9 @@
       <c r="F41">
         <v>7094.7592800000002</v>
       </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
       <c r="H41">
         <v>2756.6555199999998</v>
       </c>
@@ -1209,6 +1523,9 @@
       <c r="F42">
         <v>7035.8222699999997</v>
       </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
       <c r="H42">
         <v>2728.2334000000001</v>
       </c>
@@ -1233,6 +1550,9 @@
       <c r="F43">
         <v>6530.7412100000001</v>
       </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
       <c r="H43">
         <v>2424.0974099999999</v>
       </c>
@@ -1257,6 +1577,9 @@
       <c r="F44">
         <v>6088.9702100000004</v>
       </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
       <c r="H44">
         <v>2225.2128899999998</v>
       </c>
@@ -1281,6 +1604,9 @@
       <c r="F45">
         <v>6517.9887699999999</v>
       </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
       <c r="H45">
         <v>2447.9626499999999</v>
       </c>
@@ -1305,6 +1631,9 @@
       <c r="F46">
         <v>6242.2768599999999</v>
       </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
       <c r="H46">
         <v>2285.39282</v>
       </c>
@@ -1329,6 +1658,9 @@
       <c r="F47">
         <v>6024.7919899999997</v>
       </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
       <c r="H47">
         <v>2205.3361799999998</v>
       </c>
@@ -1353,6 +1685,9 @@
       <c r="F48">
         <v>5953.1889600000004</v>
       </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
       <c r="H48">
         <v>2174.6755400000002</v>
       </c>
@@ -1377,6 +1712,9 @@
       <c r="F49">
         <v>5866.8144499999999</v>
       </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
       <c r="H49">
         <v>2067.6333</v>
       </c>
@@ -1401,6 +1739,9 @@
       <c r="F50">
         <v>5424.7163099999998</v>
       </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
       <c r="H50">
         <v>1819.9305400000001</v>
       </c>
@@ -1425,6 +1766,9 @@
       <c r="F51">
         <v>5505.2089800000003</v>
       </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
       <c r="H51">
         <v>1891.00098</v>
       </c>
@@ -1449,6 +1793,9 @@
       <c r="F52">
         <v>5559.6757799999996</v>
       </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
       <c r="H52">
         <v>1976.1966600000001</v>
       </c>
@@ -1473,6 +1820,9 @@
       <c r="F53">
         <v>5674.4169899999997</v>
       </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
       <c r="H53">
         <v>2025.31873</v>
       </c>
@@ -1497,6 +1847,9 @@
       <c r="F54">
         <v>5423.81592</v>
       </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
       <c r="H54">
         <v>1890.7652599999999</v>
       </c>
@@ -1521,6 +1874,9 @@
       <c r="F55">
         <v>5403.4604499999996</v>
       </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
       <c r="H55">
         <v>1887.40173</v>
       </c>
@@ -1545,6 +1901,9 @@
       <c r="F56">
         <v>5618.0708000000004</v>
       </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
       <c r="H56">
         <v>1953.23083</v>
       </c>
@@ -1569,6 +1928,9 @@
       <c r="F57">
         <v>5627.0668900000001</v>
       </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
       <c r="H57">
         <v>1930.3120100000001</v>
       </c>
@@ -1593,6 +1955,9 @@
       <c r="F58">
         <v>5523.9750999999997</v>
       </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
       <c r="H58">
         <v>1913.6518599999999</v>
       </c>
@@ -1617,6 +1982,9 @@
       <c r="F59">
         <v>5306.3374000000003</v>
       </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
       <c r="H59">
         <v>1873.0347899999999</v>
       </c>
@@ -1641,6 +2009,9 @@
       <c r="F60">
         <v>4935.6323199999997</v>
       </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
       <c r="H60">
         <v>1574.9774199999999</v>
       </c>
@@ -1665,6 +2036,9 @@
       <c r="F61">
         <v>4897.6918900000001</v>
       </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
       <c r="H61">
         <v>1601.4381100000001</v>
       </c>
@@ -1689,6 +2063,9 @@
       <c r="F62">
         <v>4321.8339800000003</v>
       </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
       <c r="H62">
         <v>1315.39282</v>
       </c>
@@ -1713,6 +2090,9 @@
       <c r="F63">
         <v>4681.2002000000002</v>
       </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
       <c r="H63">
         <v>1484.35059</v>
       </c>
@@ -1737,6 +2117,9 @@
       <c r="F64">
         <v>4819.8779299999997</v>
       </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
       <c r="H64">
         <v>1562.4765600000001</v>
       </c>
@@ -1761,6 +2144,9 @@
       <c r="F65">
         <v>4697.5385699999997</v>
       </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
       <c r="H65">
         <v>1486.1709000000001</v>
       </c>
@@ -1785,6 +2171,9 @@
       <c r="F66">
         <v>4333.9555700000001</v>
       </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
       <c r="H66">
         <v>1432.7185099999999</v>
       </c>
@@ -1809,6 +2198,9 @@
       <c r="F67">
         <v>4265.09033</v>
       </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
       <c r="H67">
         <v>1361.47729</v>
       </c>
@@ -1833,6 +2225,9 @@
       <c r="F68">
         <v>4252.1689500000002</v>
       </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
       <c r="H68">
         <v>1321.6444100000001</v>
       </c>
@@ -1857,6 +2252,9 @@
       <c r="F69">
         <v>4668.5898399999996</v>
       </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
       <c r="H69">
         <v>1540.9875500000001</v>
       </c>
@@ -1881,6 +2279,9 @@
       <c r="F70">
         <v>4969.9770500000004</v>
       </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
       <c r="H70">
         <v>1652.56665</v>
       </c>
@@ -1905,6 +2306,9 @@
       <c r="F71">
         <v>4950.6674800000001</v>
       </c>
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
       <c r="H71">
         <v>1682.4503199999999</v>
       </c>
@@ -1929,6 +2333,9 @@
       <c r="F72">
         <v>4958.5991199999999</v>
       </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
       <c r="H72">
         <v>1705.27368</v>
       </c>
@@ -1953,6 +2360,9 @@
       <c r="F73">
         <v>4905.7841799999997</v>
       </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
       <c r="H73">
         <v>1697.7063000000001</v>
       </c>
@@ -1977,6 +2387,9 @@
       <c r="F74">
         <v>5073.7929700000004</v>
       </c>
+      <c r="G74" t="s">
+        <v>8</v>
+      </c>
       <c r="H74">
         <v>1688.0997299999999</v>
       </c>
@@ -2001,6 +2414,9 @@
       <c r="F75">
         <v>5416.1938499999997</v>
       </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
       <c r="H75">
         <v>1803.24658</v>
       </c>
@@ -2025,6 +2441,9 @@
       <c r="F76">
         <v>5562.6103499999999</v>
       </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
       <c r="H76">
         <v>1903.6293900000001</v>
       </c>
@@ -2049,6 +2468,9 @@
       <c r="F77">
         <v>5929.4858400000003</v>
       </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
       <c r="H77">
         <v>2074.1330600000001</v>
       </c>
@@ -2073,6 +2495,9 @@
       <c r="F78">
         <v>5936.3295900000003</v>
       </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
       <c r="H78">
         <v>2131.2214399999998</v>
       </c>
@@ -2097,6 +2522,9 @@
       <c r="F79">
         <v>6219.4233400000003</v>
       </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
       <c r="H79">
         <v>2168.1491700000001</v>
       </c>
@@ -2121,6 +2549,9 @@
       <c r="F80">
         <v>6011.4936500000003</v>
       </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
       <c r="H80">
         <v>2055.6931199999999</v>
       </c>
@@ -2145,6 +2576,9 @@
       <c r="F81">
         <v>5927.7695299999996</v>
       </c>
+      <c r="G81" t="s">
+        <v>8</v>
+      </c>
       <c r="H81">
         <v>2002.5242900000001</v>
       </c>
@@ -2169,6 +2603,9 @@
       <c r="F82">
         <v>6023.2172899999996</v>
       </c>
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
       <c r="H82">
         <v>2039.4533699999999</v>
       </c>
@@ -2193,6 +2630,9 @@
       <c r="F83">
         <v>6009.5712899999999</v>
       </c>
+      <c r="G83" t="s">
+        <v>8</v>
+      </c>
       <c r="H83">
         <v>2086.4550800000002</v>
       </c>
@@ -2217,6 +2657,9 @@
       <c r="F84">
         <v>5932.4804700000004</v>
       </c>
+      <c r="G84" t="s">
+        <v>8</v>
+      </c>
       <c r="H84">
         <v>1984.37195</v>
       </c>
@@ -2241,6 +2684,9 @@
       <c r="F85">
         <v>5979.7968799999999</v>
       </c>
+      <c r="G85" t="s">
+        <v>8</v>
+      </c>
       <c r="H85">
         <v>1987.5938699999999</v>
       </c>
@@ -2265,6 +2711,9 @@
       <c r="F86">
         <v>6137.71875</v>
       </c>
+      <c r="G86" t="s">
+        <v>8</v>
+      </c>
       <c r="H86">
         <v>2060.6223100000002</v>
       </c>
@@ -2289,6 +2738,9 @@
       <c r="F87">
         <v>6262.8935499999998</v>
       </c>
+      <c r="G87" t="s">
+        <v>8</v>
+      </c>
       <c r="H87">
         <v>2182.0727499999998</v>
       </c>
@@ -2313,6 +2765,9 @@
       <c r="F88">
         <v>6615.5053699999999</v>
       </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
       <c r="H88">
         <v>2315.9438500000001</v>
       </c>
@@ -2337,6 +2792,9 @@
       <c r="F89">
         <v>6759.9511700000003</v>
       </c>
+      <c r="G89" t="s">
+        <v>8</v>
+      </c>
       <c r="H89">
         <v>2432.30737</v>
       </c>
@@ -2361,6 +2819,9 @@
       <c r="F90">
         <v>6682.6210899999996</v>
       </c>
+      <c r="G90" t="s">
+        <v>8</v>
+      </c>
       <c r="H90">
         <v>2363.2045899999998</v>
       </c>
@@ -2385,6 +2846,9 @@
       <c r="F91">
         <v>6997.5297899999996</v>
       </c>
+      <c r="G91" t="s">
+        <v>8</v>
+      </c>
       <c r="H91">
         <v>2443.3830600000001</v>
       </c>
@@ -2409,6 +2873,9 @@
       <c r="F92">
         <v>6794.75342</v>
       </c>
+      <c r="G92" t="s">
+        <v>8</v>
+      </c>
       <c r="H92">
         <v>2390.7856400000001</v>
       </c>
@@ -2433,6 +2900,9 @@
       <c r="F93">
         <v>6710.1953100000001</v>
       </c>
+      <c r="G93" t="s">
+        <v>8</v>
+      </c>
       <c r="H93">
         <v>2303.7272899999998</v>
       </c>
@@ -2457,6 +2927,9 @@
       <c r="F94">
         <v>6626.38184</v>
       </c>
+      <c r="G94" t="s">
+        <v>8</v>
+      </c>
       <c r="H94">
         <v>2340.5373500000001</v>
       </c>
@@ -2481,6 +2954,9 @@
       <c r="F95">
         <v>6700.8764600000004</v>
       </c>
+      <c r="G95" t="s">
+        <v>8</v>
+      </c>
       <c r="H95">
         <v>2374.4375</v>
       </c>
@@ -2505,6 +2981,9 @@
       <c r="F96">
         <v>6768.4384799999998</v>
       </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
       <c r="H96">
         <v>2477.9060100000002</v>
       </c>
@@ -2529,6 +3008,9 @@
       <c r="F97">
         <v>6973.11816</v>
       </c>
+      <c r="G97" t="s">
+        <v>8</v>
+      </c>
       <c r="H97">
         <v>2475.8754899999999</v>
       </c>
@@ -2553,6 +3035,9 @@
       <c r="F98">
         <v>7030.8574200000003</v>
       </c>
+      <c r="G98" t="s">
+        <v>8</v>
+      </c>
       <c r="H98">
         <v>2530.8042</v>
       </c>
@@ -2577,6 +3062,9 @@
       <c r="F99">
         <v>6836.3222699999997</v>
       </c>
+      <c r="G99" t="s">
+        <v>8</v>
+      </c>
       <c r="H99">
         <v>2432.7504899999999</v>
       </c>
@@ -2601,6 +3089,9 @@
       <c r="F100">
         <v>6842.3544899999997</v>
       </c>
+      <c r="G100" t="s">
+        <v>8</v>
+      </c>
       <c r="H100">
         <v>2494.1169399999999</v>
       </c>
@@ -2625,6 +3116,9 @@
       <c r="F101">
         <v>6995.6103499999999</v>
       </c>
+      <c r="G101" t="s">
+        <v>8</v>
+      </c>
       <c r="H101">
         <v>2588.4438500000001</v>
       </c>
@@ -2649,6 +3143,9 @@
       <c r="F102">
         <v>7422.8823199999997</v>
       </c>
+      <c r="G102" t="s">
+        <v>8</v>
+      </c>
       <c r="H102">
         <v>2749.6491700000001</v>
       </c>
@@ -2673,6 +3170,9 @@
       <c r="F103">
         <v>7325.9824200000003</v>
       </c>
+      <c r="G103" t="s">
+        <v>8</v>
+      </c>
       <c r="H103">
         <v>2745.51611</v>
       </c>
@@ -2697,6 +3197,9 @@
       <c r="F104">
         <v>7511.0629900000004</v>
       </c>
+      <c r="G104" t="s">
+        <v>8</v>
+      </c>
       <c r="H104">
         <v>2850.1167</v>
       </c>
@@ -2721,6 +3224,9 @@
       <c r="F105">
         <v>7935.9223599999996</v>
       </c>
+      <c r="G105" t="s">
+        <v>8</v>
+      </c>
       <c r="H105">
         <v>2958.9147899999998</v>
       </c>
@@ -2745,6 +3251,9 @@
       <c r="F106">
         <v>7757.5048800000004</v>
       </c>
+      <c r="G106" t="s">
+        <v>8</v>
+      </c>
       <c r="H106">
         <v>2879.6074199999998</v>
       </c>
@@ -2769,6 +3278,9 @@
       <c r="F107">
         <v>7766.3764600000004</v>
       </c>
+      <c r="G107" t="s">
+        <v>8</v>
+      </c>
       <c r="H107">
         <v>2892.5124500000002</v>
       </c>
@@ -2793,6 +3305,9 @@
       <c r="F108">
         <v>7978.6728499999999</v>
       </c>
+      <c r="G108" t="s">
+        <v>8</v>
+      </c>
       <c r="H108">
         <v>2914.2409699999998</v>
       </c>
@@ -2816,6 +3331,9 @@
       </c>
       <c r="F109">
         <v>8106.7143599999999</v>
+      </c>
+      <c r="G109" t="s">
+        <v>8</v>
       </c>
       <c r="H109">
         <v>3011.7675800000002</v>
@@ -9038,6 +9556,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d1f15cdc-886a-4af0-9db5-f84c8d88527b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="63fe9c16-2f69-4d2d-9e53-848c714d6ac9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100958F3DD216C04B45B375149FC6D7031B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a97155ece4e73437d6ac9e8c2b521dba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="63fe9c16-2f69-4d2d-9e53-848c714d6ac9" xmlns:ns3="d1f15cdc-886a-4af0-9db5-f84c8d88527b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="18d81164747ea7b7c52960c73b4ce974" ns2:_="" ns3:_="">
     <xsd:import namespace="63fe9c16-2f69-4d2d-9e53-848c714d6ac9"/>
@@ -9226,17 +9755,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d1f15cdc-886a-4af0-9db5-f84c8d88527b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="63fe9c16-2f69-4d2d-9e53-848c714d6ac9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9247,6 +9765,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C2F61F5-7233-4F16-B2A0-7FFA49146F4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d1f15cdc-886a-4af0-9db5-f84c8d88527b"/>
+    <ds:schemaRef ds:uri="63fe9c16-2f69-4d2d-9e53-848c714d6ac9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{091972F6-E119-44A8-AD00-D8B3FD5154F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9265,17 +9794,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C2F61F5-7233-4F16-B2A0-7FFA49146F4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d1f15cdc-886a-4af0-9db5-f84c8d88527b"/>
-    <ds:schemaRef ds:uri="63fe9c16-2f69-4d2d-9e53-848c714d6ac9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A7FFE5-5A3B-4F0F-9CEF-C46A13C51D87}">
   <ds:schemaRefs>
